--- a/questions.xlsx
+++ b/questions.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1170,6 +1170,356 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Emoji &amp; Symbols로 이모지 검색 후 복사하기.</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Raycast의 Emoji &amp; Symbols 기능을 사용하여 특정 이모지를 검색하고 클립보드에 복사합니다. 복사된 이모지를 텍스트 에디터에 붙여넣어 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>45초</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Emoji' 또는 'Symbols' 입력", '원하는 이모지 키워드 검색 (예: heart, smile)', '이모지 선택', 'Enter로 클립보드에 복사']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>텍스트 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Hash Generator로 텍스트의 MD5 해시값 생성하기.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Raycast의 Hash Generator Extension을 사용하여 입력한 텍스트의 MD5 해시값을 생성하고 결과를 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>['Hash Generator Extension 설치 (필요시)', "Raycast에서 'Hash' 또는 'MD5' 입력", 'Hash Generator 실행', '해시화할 텍스트 입력', 'MD5 해시값 생성 및 복사']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>개발 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>UUID Generator로 새 UUID 생성하기.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>개발 작업에 필요한 UUID(Universally Unique Identifier)를 Raycast를 통해 빠르게 생성하고 클립보드에 복사합니다.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>30초</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'UUID' 입력", 'UUID Generator 선택', '새 UUID 생성', '클립보드에 복사']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>개발 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GitHub Extension으로 내 레포지토리 검색하기.</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>GitHub Extension을 설치하고 계정을 연동한 후, 본인의 GitHub 레포지토리를 검색하여 브라우저에서 열어봅니다.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1분 30초</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>['GitHub Extension 설치', 'GitHub 계정 연동', "'My Repositories' 커맨드 실행", '레포지토리 검색 또는 선택', '브라우저에서 레포지토리 열기']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Extension 활용</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Dictionary로 영어 단어 뜻 검색하기.</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Raycast의 Dictionary 기능을 사용하여 영어 단어의 뜻과 발음을 검색하고 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>45초</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Dictionary' 또는 'Define' 입력", 'Dictionary 기능 선택', '검색할 영어 단어 입력', '단어 뜻과 발음 확인']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>유틸리티</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Bluetooth 기기 연결 상태 확인 및 제어하기.</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Raycast를 통해 Bluetooth 설정에 접근하여 연결된 기기 상태를 확인하고 기기를 연결/해제합니다.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Bluetooth' 입력", 'Bluetooth 설정 열기', '연결된 기기 목록 확인', '필요시 기기 연결/해제 실행']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>시스템 제어</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Calculator로 복잡한 수식 계산하기.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Raycast의 내장 Calculator 기능을 사용하여 복잡한 수학 계산을 수행하고 결과를 클립보드에 복사합니다.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>45초</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', '수식 직접 입력 (예: 125*8+47/3)', '계산 결과 확인', '필요시 결과값 클립보드에 복사', '계산 기록 확인']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>유틸리티</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Dock에서 앱 숨기기/보이기 제어하기.</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Raycast를 통해 macOS Dock의 특정 앱을 숨기거나 다시 보이게 하는 기능을 사용합니다.</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Hide' 또는 'Dock' 입력", 'Hide/Show Application 기능 선택', '제어할 앱 선택', 'Dock에서 숨기기/보이기 실행']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>시스템 제어</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Weather Extension으로 현재 날씨 확인하기.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Weather Extension을 설치하고 위치를 설정한 후, 현재 날씨와 주간 예보를 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1분 30초</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>['Weather Extension 설치', '위치 설정 (도시명 또는 GPS)', "'Weather' 커맨드 실행", '현재 날씨 정보 확인', '주간 예보 확인']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Extension 활용</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Custom Hotkey로 자주 사용하는 커맨드에 단축키 설정하기.</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Raycast 설정에서 자주 사용하는 커맨드에 사용자 정의 단축키(Hotkey)를 설정하여 더 빠르게 접근할 수 있도록 구성합니다.</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>어려움</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2분</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>['Raycast 설정 열기 (Cmd+,)', 'Extensions 또는 Commands 섹션 이동', '자주 사용하는 커맨드 선택', 'Hotkey 설정 옵션 찾기', '원하는 단축키 조합 설정', '설정 저장 후 단축키 테스트']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>커스터마이제이션</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1520,6 +1520,706 @@
         </is>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Base64 Encode/Decode로 텍스트 인코딩하기.</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Raycast의 Base64 인코딩/디코딩 기능을 사용하여 텍스트를 Base64로 인코딩하고 다시 디코딩하여 원본과 비교합니다.</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Base64' 또는 'Encode' 입력", 'Base64 Encode 선택', '인코딩할 텍스트 입력', '인코딩 결과 확인 및 복사']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>개발 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Quit Applications로 실행 중인 모든 앱 종료하기.</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Raycast의 Quit Applications 기능을 사용하여 현재 실행 중인 여러 앱들을 한 번에 선택적으로 종료합니다.</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Quit Applications' 입력", 'Quit All Applications 선택', '종료할 앱들 선택', '선택된 앱들 일괄 종료']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>시스템 제어</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>JSON Pretty Print로 JSON 데이터 포맷팅하기.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>개발 작업 중 받은 압축된 JSON 데이터를 Raycast의 JSON Pretty Print 기능으로 읽기 쉽게 포맷팅합니다.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>['JSON Pretty Print Extension 설치 (필요시)', "Raycast에서 'JSON' 또는 'Pretty' 입력", 'JSON Pretty Print 선택', '압축된 JSON 데이터 입력', '포맷팅된 결과 확인 및 복사']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>개발 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Password Generator로 안전한 비밀번호 생성하기.</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Raycast의 Password Generator를 사용하여 길이와 복잡성을 조정한 안전한 비밀번호를 생성하고 클립보드에 복사합니다.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>45초</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Password' 또는 'Generate' 입력", 'Password Generator 선택', '비밀번호 길이 및 옵션 설정', '생성된 비밀번호 클립보드에 복사']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>보안 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>WiFi 네트워크 연결 상태 확인 및 변경하기.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Raycast를 통해 현재 WiFi 연결 상태를 확인하고 사용 가능한 다른 네트워크로 연결을 변경합니다.</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1분 30초</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'WiFi' 또는 'Network' 입력", 'WiFi 관련 기능 선택', '현재 연결 상태 확인', '다른 네트워크 선택 및 연결']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>시스템 제어</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Text Case Converter로 텍스트 대소문자 변환하기.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Raycast의 Text Case 변환 기능을 사용하여 텍스트를 대문자, 소문자, camelCase, snake_case 등 다양한 형식으로 변환합니다.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>45초</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Text Case' 또는 'Convert' 입력", 'Text Case Converter 선택', '변환할 텍스트 입력', '원하는 케이스 형식 선택 및 복사']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>텍스트 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Apple Music Extension으로 음악 재생 목록 제어하기.</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Apple Music Extension을 사용하여 재생 목록을 검색하고 특정 앨범이나 플레이리스트를 재생합니다.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1분 30초</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>['Apple Music Extension 설치 (필요시)', 'Apple Music 계정 연동', "'Apple Music' 커맨드 실행", '재생 목록 또는 앨범 검색', '선택한 음악 재생']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Extension 활용</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Kill Process로 특정 프로세스 강제 종료하기.</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>응답하지 않는 앱이나 프로세스를 Raycast의 Kill Process 기능으로 찾아서 강제 종료합니다.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>어려움</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1분 30초</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Kill Process' 또는 'Activity Monitor' 입력", 'Kill Process 기능 선택', '종료할 프로세스 검색', '프로세스 선택 후 강제 종료']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>시스템 제어</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>QR Code Generator로 URL QR 코드 생성하기.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>웹사이트 URL이나 텍스트를 입력하여 QR 코드를 생성하고 이미지로 저장하거나 미리보기로 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>['QR Code Generator Extension 설치 (필요시)', "Raycast에서 'QR Code' 입력", 'QR Code Generator 선택', 'URL 또는 텍스트 입력', '생성된 QR 코드 미리보기 및 저장']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>유틸리티</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Floating Notes로 데스크탑에 메모 띄우기.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Raycast의 Floating Notes 기능을 사용하여 중요한 메모를 데스크탑에 항상 보이는 플로팅 노트로 생성합니다.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1분 30초</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>['Floating Notes Extension 설치 (필요시)', "Raycast에서 'Floating Notes' 입력", 'Create Floating Note 선택', '메모 내용 작성', '데스크탑에 플로팅 노트 생성 확인']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>생산성</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Unit Converter로 단위 변환하기 (길이, 무게, 온도).</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Raycast의 Unit Converter를 사용하여 미터를 피트로, 킬로그램을 파운드로, 섭씨를 화씨로 변환하는 등 다양한 단위 변환을 수행합니다.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Unit Converter' 또는 'Convert' 입력", 'Unit Converter 선택', '변환할 값과 단위 입력 (예: 100 meters)', '목표 단위로 변환 결과 확인']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>계산 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>IP Geolocation으로 IP 주소 위치 정보 확인하기.</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>특정 IP 주소의 지리적 위치, 국가, 도시 정보를 Raycast의 IP Geolocation 기능으로 조회합니다.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>['IP Geolocation Extension 설치 (필요시)', "Raycast에서 'IP' 또는 'Geolocation' 입력", 'IP Geolocation 기능 선택', '조회할 IP 주소 입력', '위치 정보 및 상세 정보 확인']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>네트워크 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Menu Bar로 자주 사용하는 기능을 메뉴바에 고정하기.</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Raycast의 Menu Bar 기능을 설정하여 자주 사용하는 커맨드나 정보를 macOS 메뉴바에 항상 표시되도록 구성합니다.</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>어려움</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2분</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>['Raycast 설정 열기 (Cmd+,)', 'Menu Bar 섹션 찾기', 'Show in Menu Bar 옵션 활성화', '메뉴바에 표시할 커맨드 선택', '메뉴바에서 기능 테스트']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>커스터마이제이션</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Timezone Converter로 다른 시간대 시간 확인하기.</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>해외 협업이나 미팅을 위해 다른 시간대의 현재 시간을 확인하고 시간 변환을 수행합니다.</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>45초</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Timezone' 또는 'Time' 입력", 'Timezone Converter 선택', '확인하고 싶은 도시/시간대 입력', '해당 지역의 현재 시간 확인']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>유틸리티</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Disk Utility로 디스크 사용량 확인하기.</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Raycast를 통해 macOS Disk Utility에 접근하여 각 드라이브의 사용량과 남은 공간을 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>45초</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Disk Utility' 또는 'Storage' 입력", 'Disk Utility 앱 실행', '각 드라이브 사용량 확인', '필요시 디스크 정리 옵션 확인']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>시스템 모니터링</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Notion Extension으로 새 페이지 생성하기.</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Notion Extension을 설치하고 계정을 연동한 후, Raycast에서 직접 새로운 Notion 페이지를 생성합니다.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>어려움</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2분 30초</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>['Notion Extension 설치', 'Notion 계정 연동 및 권한 설정', "'Notion' 커맨드 실행", 'Create Page 선택', '페이지 제목 입력 후 생성']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Extension 활용</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Network Quality로 인터넷 속도 테스트하기.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>현재 네트워크 연결의 다운로드/업로드 속도와 지연시간을 Raycast의 Network Quality 기능으로 측정합니다.</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1분 30초</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Network Quality' 또는 'Speed Test' 입력", 'Network Quality 테스트 실행', '다운로드/업로드 속도 측정 대기', '테스트 결과 확인']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>네트워크 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Temporary Email Generator로 임시 이메일 생성하기.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>테스트나 임시 가입 목적으로 사용할 임시 이메일 주소를 생성하고 클립보드에 복사합니다.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>['Temporary Email Extension 설치 (필요시)', "Raycast에서 'Temp Email' 입력", 'Temporary Email Generator 실행', '임시 이메일 주소 생성', '생성된 이메일 주소 복사']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>유틸리티</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Script Commands로 사용자 정의 스크립트 실행하기.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>자주 사용하는 shell 명령어나 스크립트를 Raycast의 Script Commands로 등록하고 실행합니다.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>어려움</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>3분</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>['Script Commands Extension 설치', '새 스크립트 생성 또는 기존 스크립트 추가', '스크립트 파일 권한 설정', 'Raycast에서 스크립트 커맨드 실행', '스크립트 실행 결과 확인']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>개발 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Raycast AI로 코드 설명 요청하기.</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Raycast의 내장 AI 기능을 사용하여 복잡한 코드 스니펫에 대한 설명을 요청하고 답변을 받습니다.</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1분 30초</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>['Raycast AI 기능 활성화 (Pro 구독 필요시)', 'Cmd+Space로 Raycast 실행', "'AI' 또는 'Ask AI' 입력", 'AI 채팅 시작', '코드를 붙여넣고 설명 요청']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>AI 도구</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2220,6 +2220,1756 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>URL Shortener로 긴 URL을 단축 URL로 변환하기.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>긴 웹사이트 주소를 Raycast의 URL Shortener 기능을 사용하여 짧은 링크로 변환하고 클립보드에 복사합니다.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>45초</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>['URL Shortener Extension 설치 (필요시)', "Raycast에서 'Shorten URL' 입력", 'URL Shortener 기능 선택', '변환할 긴 URL 입력', '생성된 단축 URL 복사']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>웹 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Docker Extension으로 컨테이너 상태 확인하기.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Docker가 설치된 환경에서 Raycast의 Docker Extension을 사용하여 실행 중인 컨테이너 목록을 확인하고 관리합니다.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>어려움</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2분</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>['Docker Extension 설치', 'Docker 연결 설정', "'Docker' 커맨드 실행", 'List Containers 선택', '컨테이너 상태 확인 및 제어']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>개발 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Lorem Ipsum Generator로 더미 텍스트 생성하기.</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>웹 디자인이나 레이아웃 테스트를 위한 Lorem Ipsum 더미 텍스트를 원하는 길이로 생성합니다.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>30초</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Lorem Ipsum' 입력", 'Lorem Ipsum Generator 선택', '원하는 단어 수 또는 문단 수 설정', '생성된 더미 텍스트 복사']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>텍스트 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Figma Extension으로 최근 디자인 파일 열기.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Figma Extension을 설치하고 계정을 연동한 후, 최근 작업한 디자인 파일을 검색하여 브라우저에서 엽니다.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1분 30초</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>['Figma Extension 설치', 'Figma 계정 연동', "'Figma' 커맨드 실행", 'Recent Files 또는 Search Files 선택', '디자인 파일 선택 후 열기']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Extension 활용</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>HTTP Status Codes로 상태 코드 의미 검색하기.</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>웹 개발 중 마주치는 HTTP 상태 코드(404, 500 등)의 정확한 의미와 설명을 빠르게 검색합니다.</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>30초</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>['HTTP Status Codes Extension 설치 (필요시)', "Raycast에서 'HTTP' 또는 상태 코드 입력", 'HTTP Status Codes 검색', '원하는 상태 코드 선택', '상태 코드 의미 및 설명 확인']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>개발 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Brew로 설치된 패키지 목록 확인 및 업데이트하기.</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>macOS의 Homebrew 패키지 매니저와 연동하여 설치된 패키지 목록을 확인하고 업데이트를 실행합니다.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1분 30초</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>['Homebrew Extension 설치', "Raycast에서 'Brew' 입력", 'List Installed 선택', '설치된 패키지 목록 확인', '필요시 Update All 실행']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>개발 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Raycast Theme 변경하기.</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Raycast의 외관 테마를 Light, Dark 또는 사용자 정의 테마로 변경하여 개인 취향에 맞게 커스터마이즈합니다.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>['Raycast 설정 열기 (Cmd+,)', 'Appearance 섹션 찾기', 'Theme 옵션 확인', '원하는 테마 선택 (Light/Dark/Auto)', '변경된 테마 확인']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>커스터마이제이션</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Email Validator로 이메일 주소 유효성 검증하기.</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>입력받은 이메일 주소가 올바른 형식인지 검증하고 도메인 존재 여부까지 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>45초</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>['Email Validator Extension 설치 (필요시)', "Raycast에서 'Email Validator' 입력", 'Email Validator 실행', '검증할 이메일 주소 입력', '유효성 검증 결과 확인']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>유틸리티</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Activity Monitor로 CPU 사용률 높은 프로세스 찾기.</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Raycast를 통해 macOS Activity Monitor에 접근하여 CPU를 많이 사용하는 프로세스를 찾아 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Activity Monitor' 입력", 'Activity Monitor 앱 실행', 'CPU 탭에서 사용률 높은 프로세스 확인', '필요시 프로세스 상세 정보 확인']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>시스템 모니터링</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Markdown to HTML Converter로 마크다운 변환하기.</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>작성한 Markdown 문서를 HTML 형식으로 변환하여 웹에서 사용할 수 있는 형태로 만듭니다.</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>['Markdown Extension 설치 (필요시)', "Raycast에서 'Markdown' 입력", 'Markdown to HTML 선택', '변환할 Markdown 텍스트 입력', '변환된 HTML 결과 확인 및 복사']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>텍스트 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Font Book으로 시스템 폰트 검색 및 미리보기하기.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Raycast를 통해 macOS Font Book에 접근하여 설치된 폰트를 검색하고 미리보기로 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Font Book' 입력", 'Font Book 앱 실행', '원하는 폰트 검색', '폰트 미리보기 확인']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>디자인 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>URL Expander로 단축된 URL의 실제 주소 확인하기.</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>bit.ly, tinyurl 등의 단축 URL이 실제로 어떤 웹사이트로 연결되는지 미리 확인하여 보안을 강화합니다.</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>45초</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>['URL Expander Extension 설치 (필요시)', "Raycast에서 'Expand URL' 입력", 'URL Expander 실행', '확인할 단축 URL 입력', '실제 목적지 URL 확인']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>보안 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Image Optimizer로 이미지 파일 용량 최적화하기.</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>웹사이트나 앱에 사용할 이미지 파일의 용량을 줄이기 위해 Raycast의 Image Optimizer를 사용합니다.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1분 30초</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>['Image Optimizer Extension 설치', "Raycast에서 'Image Optimizer' 입력", '최적화할 이미지 파일 선택', '압축 옵션 설정', '최적화된 이미지 저장']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>미디어 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Regex Tester로 정규표현식 패턴 테스트하기.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>개발 중 사용할 정규표현식 패턴을 테스트하고 샘플 텍스트와 매칭되는지 실시간으로 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>어려움</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2분</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>['RegEx Tester Extension 설치 (필요시)', "Raycast에서 'Regex' 입력", 'Regex Tester 실행', '정규표현식 패턴 입력', '테스트 텍스트로 매칭 결과 확인']</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>개발 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Reminder 추가로 macOS 미리알림에 할일 등록하기.</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Raycast를 통해 macOS 미리알림 앱에 새로운 할일을 빠르게 추가하고 알림 시간을 설정합니다.</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Reminder' 또는 'Add Reminder' 입력", 'Add Reminder 선택', '할일 내용 입력', '알림 시간 설정 후 저장']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>생산성</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SSH Manager로 자주 사용하는 서버에 연결하기.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>자주 접속하는 원격 서버들을 SSH Manager에 등록하고 Raycast에서 빠르게 터미널 SSH 연결을 실행합니다.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>어려움</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2분 30초</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>['SSH Manager Extension 설치', '서버 연결 정보 등록', "'SSH' 커맨드 실행", '연결할 서버 선택', '터미널에서 SSH 연결 확인']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>개발 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>World Clock으로 여러 시간대 동시 확인하기.</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>글로벌 팀과 협업할 때 필요한 여러 시간대의 현재 시간을 한 번에 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>['World Clock Extension 설치 (필요시)', "Raycast에서 'World Clock' 입력", 'World Clock 실행', '관심 있는 도시들 추가', '여러 시간대 동시 확인']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>유틸리티</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Xcode로 iOS 시뮬레이터 실행하기.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>iOS 앱 개발을 위해 Raycast를 통해 Xcode의 iOS 시뮬레이터를 빠르게 실행합니다.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1분 30초</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>['Xcode Simulator Extension 설치 (필요시)', "Raycast에서 'Simulator' 입력", 'iOS Simulator 선택', '원하는 iOS 버전/기기 선택', '시뮬레이터 실행 확인']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>개발 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Contacts에서 연락처 검색 후 정보 확인하기.</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Raycast를 통해 macOS 연락처 앱에서 특정 사람의 연락처 정보를 빠르게 검색하고 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>45초</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', '찾고자 하는 사람 이름 입력', '연락처 검색 결과 확인', '연락처 정보 선택', '전화번호, 이메일 등 정보 확인']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>생산성</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Text Expander로 자주 사용하는 텍스트 단축어 설정하기.</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>이메일 서명, 주소 등 자주 입력하는 긴 텍스트를 단축어로 설정하여 빠르게 입력할 수 있도록 구성합니다.</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>어려움</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>3분</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>['Text Expander 기능 또는 Extension 설정', '새 단축어 생성', '단축어와 확장될 텍스트 입력', '단축어 활성화 설정', '텍스트 에디터에서 단축어 테스트']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>생산성</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Port Scanner로 네트워크 포트 상태 확인하기.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>특정 IP 주소나 도메인의 네트워크 포트가 열려있는지 확인하여 서버 상태나 보안 점검을 수행합니다.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>어려움</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2분</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>['Port Scanner Extension 설치 (필요시)', "Raycast에서 'Port Scanner' 입력", 'Port Scanner 실행', '대상 IP/도메인과 포트 번호 입력', '포트 상태 결과 확인']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>네트워크 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CSS Color Converter로 색상 코드 변환하기.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>웹 개발 시 HEX, RGB, HSL 등 다양한 색상 코드 형식을 서로 변환하여 디자인 작업을 효율화합니다.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>['CSS Color Converter Extension 설치 (필요시)', "Raycast에서 'Color Converter' 입력", 'Color Converter 실행', '변환할 색상 코드 입력 (예: #FF0000)', '다른 형식(RGB, HSL)으로 변환 결과 확인']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>디자인 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Memory Cleaner로 시스템 메모리 정리하기.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>macOS의 메모리 사용량이 높을 때 Raycast를 통해 메모리를 정리하여 시스템 성능을 개선합니다.</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>['Memory Cleaner Extension 설치 (필요시)', "Raycast에서 'Memory Cleaner' 입력", 'Clean Memory 실행', '현재 메모리 사용량 확인', '메모리 정리 완료 확인']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>시스템 최적화</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>DNS Lookup으로 도메인 DNS 정보 조회하기.</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>특정 도메인의 DNS 레코드(A, MX, NS 등)를 조회하여 네트워크 문제 해결이나 도메인 설정을 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>어려움</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1분 30초</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>['DNS Lookup Extension 설치 (필요시)', "Raycast에서 'DNS Lookup' 입력", 'DNS Lookup 실행', '조회할 도메인 입력', 'DNS 레코드 정보 확인']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>네트워크 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Audio Device Switcher로 오디오 출력 장치 변경하기.</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>헤드폰, 스피커, AirPods 등 여러 오디오 장치 간에 빠르게 출력을 전환합니다.</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>45초</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>['Audio Device Switcher Extension 설치 (필요시)', "Raycast에서 'Audio Device' 입력", 'Switch Audio Output 선택', '사용 가능한 오디오 장치 목록 확인', '원하는 출력 장치 선택']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>시스템 제어</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>GitHub Issues로 이슈 생성 및 관리하기.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>GitHub Extension을 활용하여 레포지토리의 이슈를 검색하고 새로운 이슈를 생성합니다.</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>어려움</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2분 30초</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>['GitHub Extension에서 Issues 기능 접근', "'GitHub Issues' 커맨드 실행", '특정 레포지토리 선택', '새 이슈 생성 또는 기존 이슈 검색', '이슈 제목과 내용 작성']</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Extension 활용</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>File Hashing으로 파일 체크섬 생성하기.</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>파일의 무결성 검증을 위해 MD5, SHA1, SHA256 등의 해시값을 생성합니다.</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1분 30초</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>['File Hash Extension 설치 (필요시)', "Raycast에서 'File Hash' 입력", 'Hash File 실행', '해시값을 생성할 파일 선택', 'MD5, SHA1, SHA256 해시값 확인']</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>보안 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Database Query로 데이터베이스 연결 및 쿼리 실행하기.</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>개발 환경의 데이터베이스에 연결하여 간단한 SQL 쿼리를 실행하고 결과를 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>어려움</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>3분</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>['Database Extension 설치', '데이터베이스 연결 정보 설정', "'Database Query' 실행", 'SQL 쿼리 입력', '쿼리 결과 확인']</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>개발 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Pomodoro Timer로 집중 시간 관리하기.</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>뽀모도로 기법을 활용하여 25분 집중 + 5분 휴식 사이클로 업무 효율성을 높입니다.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>30초</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>['Pomodoro Timer Extension 설치 (필요시)', "Raycast에서 'Pomodoro' 입력", 'Start Pomodoro 선택', '25분 타이머 시작', '타이머 종료 시 휴식 시간 확인']</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>생산성</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>System Information으로 하드웨어 정보 확인하기.</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>현재 Mac의 CPU, 메모리, 스토리지, macOS 버전 등 상세한 시스템 정보를 한 번에 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>45초</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'System Information' 입력", 'System Information 실행', '하드웨어 정보 확인', '필요한 정보 클립보드에 복사']</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>시스템 모니터링</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Git Repository Status로 현재 프로젝트 상태 확인하기.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>현재 작업 중인 Git 레포지토리의 변경사항, 브랜치 정보, 커밋 상태를 Raycast를 통해 빠르게 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>['Git Extension 설치 (필요시)', 'Git 프로젝트 폴더에서 Raycast 실행', "'Git Status' 입력", 'Git Status 실행', '변경된 파일과 브랜치 상태 확인']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>개발 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>App Store에서 앱 검색 및 설치하기.</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Raycast를 통해 Mac App Store에 접근하여 특정 앱을 검색하고 설치 페이지로 이동합니다.</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'App Store' 입력", 'App Store 앱 실행', '검색하고 싶은 앱 이름 입력', '앱 정보 확인 후 설치']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>앱 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Screen Saver Preview로 화면 보호기 미리보기하기.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>설치된 다양한 화면 보호기를 미리보기로 확인하고 마음에 드는 것으로 설정을 변경합니다.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Screen Saver' 입력", 'Screen Saver 설정 열기', '다양한 화면 보호기 미리보기', '원하는 화면 보호기 선택']</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>시스템 제어</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>CSV to JSON Converter로 데이터 형식 변환하기.</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>CSV 파일 데이터를 JSON 형식으로 변환하여 웹 개발이나 API 작업에 활용할 수 있도록 합니다.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1분 30초</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>['CSV to JSON Extension 설치 (필요시)', "Raycast에서 'CSV to JSON' 입력", 'CSV to JSON Converter 실행', '변환할 CSV 데이터 입력', '변환된 JSON 결과 확인 및 복사']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>데이터 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Console로 시스템 로그 확인하기.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>macOS Console 앱을 통해 시스템 에러 로그나 앱 크래시 로그를 확인하여 문제를 진단합니다.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>어려움</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2분</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Console' 입력", 'Console 앱 실행', '최근 시스템 로그 확인', '특정 앱이나 에러 관련 로그 검색']</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>시스템 디버깅</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Wi-Fi Password로 현재 연결된 WiFi 비밀번호 확인하기.</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>현재 연결된 WiFi 네트워크의 비밀번호를 확인하여 다른 기기 연결 시 활용합니다.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>['WiFi Password Extension 설치 (필요시)', "Raycast에서 'WiFi Password' 입력", 'Show WiFi Password 실행', '관리자 비밀번호 입력', '현재 WiFi 비밀번호 확인']</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>네트워크 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Keystroke Pro로 키보드 단축키 연습하기.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>macOS와 자주 사용하는 앱들의 키보드 단축키를 학습하고 연습하여 업무 효율성을 높입니다.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2분</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>['Keystroke Pro Extension 설치 (필요시)', "Raycast에서 'Keystroke' 입력", 'Keystroke Pro 실행', '연습하고 싶은 앱 선택', '단축키 퀴즈 모드로 학습']</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>학습 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>File Permissions으로 파일 권한 정보 확인하기.</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>특정 파일이나 폴더의 읽기/쓰기/실행 권한을 확인하고 필요시 권한을 수정합니다.</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>어려움</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1분 30초</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>['File Permissions Extension 설치 (필요시)', "Raycast에서 'File Permissions' 입력", 'Check Permissions 실행', '권한을 확인할 파일 선택', '파일 권한 정보 확인']</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>시스템 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Markdown Table Generator로 표 생성하기.</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>README 파일이나 문서 작성 시 필요한 Markdown 형식의 표를 쉽게 생성합니다.</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1분 30초</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>['Markdown Table Generator Extension 설치 (필요시)', "Raycast에서 'Markdown Table' 입력", 'Table Generator 실행', '행과 열 수 설정', '생성된 Markdown 표 복사']</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>텍스트 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Energy Saver 설정으로 전력 관리 옵션 조정하기.</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>MacBook의 배터리 수명을 연장하기 위해 절전 모드, 디스플레이 꺼짐 시간 등을 조정합니다.</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1분 30초</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Energy Saver' 또는 'Battery' 입력", 'Energy Saver 설정 열기', '절전 옵션 확인', '필요에 따라 설정 조정']</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>시스템 제어</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>CPU Temperature Monitor로 시스템 온도 모니터링하기.</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Mac의 CPU 온도를 실시간으로 모니터링하여 과열 상태를 확인하고 시스템 안정성을 점검합니다.</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>['CPU Temperature Extension 설치 (필요시)', "Raycast에서 'CPU Temperature' 입력", 'Temperature Monitor 실행', '현재 CPU 온도 확인', '온도 변화 추이 모니터링']</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>시스템 모니터링</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Trash Manager로 휴지통 관리하기.</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>휴지통의 용량을 확인하고 선택적으로 파일을 삭제하거나 전체 휴지통을 비워 저장 공간을 확보합니다.</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Trash' 또는 'Empty Trash' 입력", 'Trash Manager 실행', '휴지통 용량 및 파일 개수 확인', '휴지통 비우기 실행']</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>파일 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>API Testing Tool로 REST API 요청 테스트하기.</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>개발 중인 API 엔드포인트에 GET, POST 등의 HTTP 요청을 보내고 응답을 확인합니다.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>어려움</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2분 30초</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>['API Testing Extension 설치', "Raycast에서 'API Test' 입력", 'API Testing Tool 실행', '요청 URL과 메소드 설정', '요청 전송 후 응답 확인']</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>개발 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Virtual Desktop Manager로 가상 데스크탑 전환하기.</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>macOS의 Mission Control 가상 데스크탑 간에 빠르게 전환하여 작업 공간을 효율적으로 관리합니다.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>['Virtual Desktop Extension 설치 (필요시)', "Raycast에서 'Desktop' 입력", 'Switch Desktop 실행', '이동할 데스크탑 번호 선택', '가상 데스크탑 전환 확인']</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>윈도우 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Backup Status로 Time Machine 백업 상태 확인하기.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>macOS Time Machine의 마지막 백업 시간과 상태를 확인하여 데이터 보호 상황을 점검합니다.</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>45초</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Time Machine' 또는 'Backup' 입력", 'Time Machine 상태 확인', '마지막 백업 시간 확인', '필요시 수동 백업 실행']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>데이터 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Firewall Settings로 방화벽 상태 확인 및 설정하기.</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>macOS 내장 방화벽의 활성화 상태를 확인하고 필요시 설정을 조정하여 보안을 강화합니다.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1분 30초</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>['Cmd+Space로 Raycast 실행', "'Firewall' 또는 'Security' 입력", 'Security &amp; Privacy 설정 열기', '방화벽 탭으로 이동', '방화벽 상태 확인 및 설정']</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>보안 설정</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Code Formatter로 소스 코드 정리하기.</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>작성한 JavaScript, Python, JSON 등의 코드를 표준 형식에 맞게 자동으로 정리하고 들여쓰기를 맞춥니다.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>보통</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1분</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>['Code Formatter Extension 설치 (필요시)', "Raycast에서 'Code Formatter' 입력", 'Code Formatter 실행', '정리할 코드 붙여넣기', '포맷팅된 코드 결과 복사']</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>개발 도구</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Raycast 단축키 설정 백업 및 복원하기.</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>현재 설정한 Raycast의 모든 단축키와 설정을 백업하고 다른 Mac에서 복원할 수 있도록 내보내기합니다.</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>어려움</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2분</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>['Raycast 설정 열기 (Cmd+,)', 'Advanced 또는 Export 섹션 찾기', 'Export Settings 선택', '백업 파일 저장 위치 지정', '설정 파일 백업 완료 확인']</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>설정 관리</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Performance Monitor로 시스템 전체 성능 분석하기.</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>CPU, 메모리, 디스크, 네트워크 사용률을 종합적으로 모니터링하여 시스템 병목 지점을 파악합니다.</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>어려움</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2분</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>['Performance Monitor Extension 설치 (필요시)', "Raycast에서 'Performance Monitor' 입력", 'System Performance 실행', 'CPU, 메모리, 디스크 사용률 확인', '성능 지표 분석 및 기록']</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>시스템 분석</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Raycast Community Hub에서 새로운 Extension 발견하기.</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Raycast의 확장성을 최대한 활용하기 위해 커뮤니티에서 개발된 유용한 Extension을 발견하고 설치합니다.</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>쉬움</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2분</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>["Raycast에서 'Store' 또는 'Extensions' 입력", 'Browse Extensions 실행', '카테고리별로 Extension 탐색', '평점과 리뷰가 좋은 Extension 선택', '새로운 Extension 설치 및 테스트']</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>확장 탐색</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
